--- a/data/output/FV2304_FV2210/UTILMD/11079.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11079.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11320" uniqueCount="682">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11341" uniqueCount="682">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2193,6 +2193,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U526" totalsRowShown="0">
+  <autoFilter ref="A1:U526"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2482,7 +2512,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U526"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -26623,5 +26656,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11079.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11079.xlsx
@@ -4146,7 +4146,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -6328,7 +6328,7 @@
         <v>618</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -6530,7 +6530,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -6732,7 +6732,7 @@
         <v>619</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -6936,7 +6936,7 @@
         <v>620</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -7144,7 +7144,7 @@
         <v>621</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -7298,7 +7298,7 @@
         <v>622</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -7500,7 +7500,7 @@
         <v>623</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -7690,7 +7690,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -7880,7 +7880,7 @@
         <v>625</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -8078,7 +8078,7 @@
         <v>628</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -8334,7 +8334,7 @@
         <v>620</v>
       </c>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -8474,7 +8474,7 @@
         <v>629</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -8626,7 +8626,7 @@
         <v>630</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -9096,7 +9096,7 @@
         <v>634</v>
       </c>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -9340,7 +9340,7 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -9528,7 +9528,7 @@
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -9664,7 +9664,7 @@
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -10062,7 +10062,7 @@
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -10248,7 +10248,7 @@
         <v>636</v>
       </c>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -10434,7 +10434,7 @@
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -10620,7 +10620,7 @@
         <v>620</v>
       </c>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -10902,7 +10902,7 @@
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -11298,7 +11298,7 @@
         <v>637</v>
       </c>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -11506,7 +11506,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -11790,7 +11790,7 @@
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -12032,7 +12032,7 @@
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N163" s="2" t="s">
@@ -12224,7 +12224,7 @@
         <v>639</v>
       </c>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -12430,7 +12430,7 @@
         <v>640</v>
       </c>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="K174" s="2"/>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -12880,7 +12880,7 @@
         <v>641</v>
       </c>
       <c r="L180" s="4"/>
-      <c r="M180" s="2" t="s">
+      <c r="M180" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N180" s="2" t="s">
@@ -13166,7 +13166,7 @@
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -13626,7 +13626,7 @@
         <v>642</v>
       </c>
       <c r="L195" s="4"/>
-      <c r="M195" s="2" t="s">
+      <c r="M195" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N195" s="2" t="s">
@@ -13922,7 +13922,7 @@
         <v>641</v>
       </c>
       <c r="L201" s="4"/>
-      <c r="M201" s="2" t="s">
+      <c r="M201" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N201" s="2" t="s">
@@ -14222,7 +14222,7 @@
         <v>643</v>
       </c>
       <c r="L207" s="4"/>
-      <c r="M207" s="2" t="s">
+      <c r="M207" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N207" s="2" t="s">
@@ -14360,7 +14360,7 @@
       </c>
       <c r="K210" s="2"/>
       <c r="L210" s="4"/>
-      <c r="M210" s="2" t="s">
+      <c r="M210" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N210" s="2" t="s">
@@ -14510,7 +14510,7 @@
       </c>
       <c r="K213" s="2"/>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N213" s="2" t="s">
@@ -14714,7 +14714,7 @@
         <v>645</v>
       </c>
       <c r="L217" s="4"/>
-      <c r="M217" s="2" t="s">
+      <c r="M217" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N217" s="2" t="s">
@@ -15108,7 +15108,7 @@
       </c>
       <c r="K225" s="2"/>
       <c r="L225" s="4"/>
-      <c r="M225" s="2" t="s">
+      <c r="M225" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N225" s="2" t="s">
@@ -15244,7 +15244,7 @@
       </c>
       <c r="K228" s="2"/>
       <c r="L228" s="4"/>
-      <c r="M228" s="2" t="s">
+      <c r="M228" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N228" s="2" t="s">
@@ -15502,7 +15502,7 @@
         <v>646</v>
       </c>
       <c r="L233" s="4"/>
-      <c r="M233" s="2" t="s">
+      <c r="M233" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N233" s="2" t="s">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -15844,7 +15844,7 @@
         <v>647</v>
       </c>
       <c r="L240" s="4"/>
-      <c r="M240" s="2" t="s">
+      <c r="M240" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N240" s="2" t="s">
@@ -15984,7 +15984,7 @@
         <v>648</v>
       </c>
       <c r="L243" s="4"/>
-      <c r="M243" s="2" t="s">
+      <c r="M243" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N243" s="2" t="s">
@@ -16136,7 +16136,7 @@
         <v>649</v>
       </c>
       <c r="L246" s="4"/>
-      <c r="M246" s="2" t="s">
+      <c r="M246" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N246" s="2" t="s">
@@ -16382,7 +16382,7 @@
         <v>651</v>
       </c>
       <c r="L251" s="4"/>
-      <c r="M251" s="2" t="s">
+      <c r="M251" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N251" s="2" t="s">
@@ -16570,7 +16570,7 @@
         <v>641</v>
       </c>
       <c r="L255" s="4"/>
-      <c r="M255" s="2" t="s">
+      <c r="M255" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N255" s="2" t="s">
@@ -16858,7 +16858,7 @@
         <v>652</v>
       </c>
       <c r="L261" s="4"/>
-      <c r="M261" s="2" t="s">
+      <c r="M261" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N261" s="2" t="s">
@@ -17104,7 +17104,7 @@
         <v>653</v>
       </c>
       <c r="L266" s="4"/>
-      <c r="M266" s="2" t="s">
+      <c r="M266" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N266" s="2" t="s">
@@ -17242,7 +17242,7 @@
       </c>
       <c r="K269" s="2"/>
       <c r="L269" s="4"/>
-      <c r="M269" s="2" t="s">
+      <c r="M269" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N269" s="2" t="s">
@@ -17392,7 +17392,7 @@
       </c>
       <c r="K272" s="2"/>
       <c r="L272" s="4"/>
-      <c r="M272" s="2" t="s">
+      <c r="M272" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N272" s="2" t="s">
@@ -17594,7 +17594,7 @@
       </c>
       <c r="K276" s="2"/>
       <c r="L276" s="4"/>
-      <c r="M276" s="2" t="s">
+      <c r="M276" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N276" s="2" t="s">
@@ -17730,7 +17730,7 @@
       </c>
       <c r="K279" s="2"/>
       <c r="L279" s="4"/>
-      <c r="M279" s="2" t="s">
+      <c r="M279" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N279" s="2" t="s">
@@ -17880,7 +17880,7 @@
         <v>655</v>
       </c>
       <c r="L282" s="4"/>
-      <c r="M282" s="2" t="s">
+      <c r="M282" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N282" s="2" t="s">
@@ -18018,7 +18018,7 @@
       </c>
       <c r="K285" s="2"/>
       <c r="L285" s="4"/>
-      <c r="M285" s="2" t="s">
+      <c r="M285" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N285" s="2" t="s">
@@ -18170,7 +18170,7 @@
         <v>657</v>
       </c>
       <c r="L288" s="4"/>
-      <c r="M288" s="2" t="s">
+      <c r="M288" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N288" s="2" t="s">
@@ -18316,7 +18316,7 @@
       </c>
       <c r="K291" s="2"/>
       <c r="L291" s="4"/>
-      <c r="M291" s="2" t="s">
+      <c r="M291" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N291" s="2" t="s">
@@ -18452,7 +18452,7 @@
       </c>
       <c r="K294" s="2"/>
       <c r="L294" s="4"/>
-      <c r="M294" s="2" t="s">
+      <c r="M294" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N294" s="2" t="s">
@@ -18706,7 +18706,7 @@
       </c>
       <c r="K299" s="2"/>
       <c r="L299" s="4"/>
-      <c r="M299" s="2" t="s">
+      <c r="M299" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N299" s="2" t="s">
@@ -18850,7 +18850,7 @@
       </c>
       <c r="K302" s="2"/>
       <c r="L302" s="4"/>
-      <c r="M302" s="2" t="s">
+      <c r="M302" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N302" s="2" t="s">
@@ -19244,7 +19244,7 @@
         <v>658</v>
       </c>
       <c r="L310" s="4"/>
-      <c r="M310" s="2" t="s">
+      <c r="M310" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N310" s="2" t="s">
@@ -19382,7 +19382,7 @@
       </c>
       <c r="K313" s="2"/>
       <c r="L313" s="4"/>
-      <c r="M313" s="2" t="s">
+      <c r="M313" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N313" s="2" t="s">
@@ -19534,7 +19534,7 @@
         <v>659</v>
       </c>
       <c r="L316" s="4"/>
-      <c r="M316" s="2" t="s">
+      <c r="M316" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N316" s="2" t="s">
@@ -19680,7 +19680,7 @@
       </c>
       <c r="K319" s="2"/>
       <c r="L319" s="4"/>
-      <c r="M319" s="2" t="s">
+      <c r="M319" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N319" s="2" t="s">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="K335" s="2"/>
       <c r="L335" s="4"/>
-      <c r="M335" s="2" t="s">
+      <c r="M335" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N335" s="2" t="s">
@@ -20658,7 +20658,7 @@
         <v>661</v>
       </c>
       <c r="L338" s="4"/>
-      <c r="M338" s="2" t="s">
+      <c r="M338" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N338" s="2" t="s">
@@ -20864,7 +20864,7 @@
       </c>
       <c r="K342" s="2"/>
       <c r="L342" s="4"/>
-      <c r="M342" s="2" t="s">
+      <c r="M342" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N342" s="2" t="s">
@@ -21014,7 +21014,7 @@
       </c>
       <c r="K345" s="2"/>
       <c r="L345" s="4"/>
-      <c r="M345" s="2" t="s">
+      <c r="M345" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N345" s="2" t="s">
@@ -21218,7 +21218,7 @@
         <v>662</v>
       </c>
       <c r="L349" s="4"/>
-      <c r="M349" s="2" t="s">
+      <c r="M349" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N349" s="2" t="s">
@@ -21506,7 +21506,7 @@
         <v>663</v>
       </c>
       <c r="L355" s="4"/>
-      <c r="M355" s="2" t="s">
+      <c r="M355" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N355" s="2" t="s">
@@ -21646,7 +21646,7 @@
         <v>664</v>
       </c>
       <c r="L358" s="4"/>
-      <c r="M358" s="2" t="s">
+      <c r="M358" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N358" s="2" t="s">
@@ -21852,7 +21852,7 @@
       </c>
       <c r="K362" s="2"/>
       <c r="L362" s="4"/>
-      <c r="M362" s="2" t="s">
+      <c r="M362" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N362" s="2" t="s">
@@ -22004,7 +22004,7 @@
         <v>666</v>
       </c>
       <c r="L365" s="4"/>
-      <c r="M365" s="2" t="s">
+      <c r="M365" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N365" s="2" t="s">
@@ -22152,7 +22152,7 @@
       </c>
       <c r="K368" s="2"/>
       <c r="L368" s="4"/>
-      <c r="M368" s="2" t="s">
+      <c r="M368" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N368" s="2" t="s">
@@ -22356,7 +22356,7 @@
         <v>668</v>
       </c>
       <c r="L372" s="4"/>
-      <c r="M372" s="2" t="s">
+      <c r="M372" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N372" s="2" t="s">
@@ -22752,7 +22752,7 @@
         <v>669</v>
       </c>
       <c r="L380" s="4"/>
-      <c r="M380" s="2" t="s">
+      <c r="M380" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N380" s="2" t="s">
@@ -23086,7 +23086,7 @@
         <v>670</v>
       </c>
       <c r="L387" s="4"/>
-      <c r="M387" s="2" t="s">
+      <c r="M387" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N387" s="2" t="s">
@@ -23274,7 +23274,7 @@
         <v>671</v>
       </c>
       <c r="L391" s="4"/>
-      <c r="M391" s="2" t="s">
+      <c r="M391" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N391" s="2" t="s">
@@ -23412,7 +23412,7 @@
       </c>
       <c r="K394" s="2"/>
       <c r="L394" s="4"/>
-      <c r="M394" s="2" t="s">
+      <c r="M394" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N394" s="2" t="s">
@@ -23556,7 +23556,7 @@
       </c>
       <c r="K397" s="2"/>
       <c r="L397" s="4"/>
-      <c r="M397" s="2" t="s">
+      <c r="M397" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N397" s="2" t="s">
@@ -23694,7 +23694,7 @@
         <v>672</v>
       </c>
       <c r="L400" s="4"/>
-      <c r="M400" s="2" t="s">
+      <c r="M400" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N400" s="2" t="s">
@@ -23842,7 +23842,7 @@
       </c>
       <c r="K403" s="2"/>
       <c r="L403" s="4"/>
-      <c r="M403" s="2" t="s">
+      <c r="M403" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N403" s="2" t="s">
@@ -24154,7 +24154,7 @@
         <v>674</v>
       </c>
       <c r="L409" s="4"/>
-      <c r="M409" s="2" t="s">
+      <c r="M409" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N409" s="2" t="s">
@@ -24292,7 +24292,7 @@
       </c>
       <c r="K412" s="2"/>
       <c r="L412" s="4"/>
-      <c r="M412" s="2" t="s">
+      <c r="M412" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N412" s="2" t="s">
@@ -24436,7 +24436,7 @@
       </c>
       <c r="K415" s="2"/>
       <c r="L415" s="4"/>
-      <c r="M415" s="2" t="s">
+      <c r="M415" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N415" s="2" t="s">
@@ -24572,7 +24572,7 @@
       </c>
       <c r="K418" s="2"/>
       <c r="L418" s="4"/>
-      <c r="M418" s="2" t="s">
+      <c r="M418" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N418" s="2" t="s">
@@ -24718,7 +24718,7 @@
       </c>
       <c r="K421" s="2"/>
       <c r="L421" s="4"/>
-      <c r="M421" s="2" t="s">
+      <c r="M421" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N421" s="2" t="s">
@@ -25084,7 +25084,7 @@
         <v>671</v>
       </c>
       <c r="L428" s="4"/>
-      <c r="M428" s="2" t="s">
+      <c r="M428" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N428" s="2" t="s">
@@ -25222,7 +25222,7 @@
       </c>
       <c r="K431" s="2"/>
       <c r="L431" s="4"/>
-      <c r="M431" s="2" t="s">
+      <c r="M431" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N431" s="2" t="s">
@@ -25366,7 +25366,7 @@
       </c>
       <c r="K434" s="2"/>
       <c r="L434" s="4"/>
-      <c r="M434" s="2" t="s">
+      <c r="M434" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N434" s="2" t="s">
@@ -25502,7 +25502,7 @@
       </c>
       <c r="K437" s="2"/>
       <c r="L437" s="4"/>
-      <c r="M437" s="2" t="s">
+      <c r="M437" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N437" s="2" t="s">
@@ -25648,7 +25648,7 @@
       </c>
       <c r="K440" s="2"/>
       <c r="L440" s="4"/>
-      <c r="M440" s="2" t="s">
+      <c r="M440" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N440" s="2" t="s">
@@ -25798,7 +25798,7 @@
         <v>671</v>
       </c>
       <c r="L443" s="4"/>
-      <c r="M443" s="2" t="s">
+      <c r="M443" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N443" s="2" t="s">
@@ -26070,7 +26070,7 @@
       </c>
       <c r="K449" s="2"/>
       <c r="L449" s="4"/>
-      <c r="M449" s="2" t="s">
+      <c r="M449" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N449" s="2" t="s">
@@ -26220,7 +26220,7 @@
         <v>676</v>
       </c>
       <c r="L452" s="4"/>
-      <c r="M452" s="2" t="s">
+      <c r="M452" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N452" s="2" t="s">
@@ -26358,7 +26358,7 @@
       </c>
       <c r="K455" s="2"/>
       <c r="L455" s="4"/>
-      <c r="M455" s="2" t="s">
+      <c r="M455" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N455" s="2" t="s">
@@ -26504,7 +26504,7 @@
       </c>
       <c r="K458" s="2"/>
       <c r="L458" s="4"/>
-      <c r="M458" s="2" t="s">
+      <c r="M458" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N458" s="2" t="s">
@@ -26652,7 +26652,7 @@
       </c>
       <c r="K461" s="2"/>
       <c r="L461" s="4"/>
-      <c r="M461" s="2" t="s">
+      <c r="M461" s="3" t="s">
         <v>110</v>
       </c>
       <c r="N461" s="2" t="s">
@@ -26788,7 +26788,7 @@
       </c>
       <c r="K464" s="2"/>
       <c r="L464" s="4"/>
-      <c r="M464" s="2" t="s">
+      <c r="M464" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N464" s="2" t="s">
@@ -26938,7 +26938,7 @@
         <v>677</v>
       </c>
       <c r="L467" s="4"/>
-      <c r="M467" s="2" t="s">
+      <c r="M467" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N467" s="2" t="s">
@@ -27076,7 +27076,7 @@
       </c>
       <c r="K470" s="2"/>
       <c r="L470" s="4"/>
-      <c r="M470" s="2" t="s">
+      <c r="M470" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N470" s="2" t="s">
@@ -27224,7 +27224,7 @@
       </c>
       <c r="K473" s="2"/>
       <c r="L473" s="4"/>
-      <c r="M473" s="2" t="s">
+      <c r="M473" s="3" t="s">
         <v>112</v>
       </c>
       <c r="N473" s="2" t="s">
@@ -27506,7 +27506,7 @@
         <v>678</v>
       </c>
       <c r="L479" s="4"/>
-      <c r="M479" s="2" t="s">
+      <c r="M479" s="3" t="s">
         <v>113</v>
       </c>
       <c r="N479" s="2" t="s">
@@ -27644,7 +27644,7 @@
       </c>
       <c r="K482" s="2"/>
       <c r="L482" s="4"/>
-      <c r="M482" s="2" t="s">
+      <c r="M482" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N482" s="2" t="s">
@@ -27792,7 +27792,7 @@
       </c>
       <c r="K485" s="2"/>
       <c r="L485" s="4"/>
-      <c r="M485" s="2" t="s">
+      <c r="M485" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N485" s="2" t="s">
@@ -28018,7 +28018,7 @@
       </c>
       <c r="K490" s="2"/>
       <c r="L490" s="4"/>
-      <c r="M490" s="2" t="s">
+      <c r="M490" s="3" t="s">
         <v>115</v>
       </c>
       <c r="N490" s="2" t="s">
@@ -28352,7 +28352,7 @@
       </c>
       <c r="K497" s="2"/>
       <c r="L497" s="4"/>
-      <c r="M497" s="2" t="s">
+      <c r="M497" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N497" s="2" t="s">
@@ -28754,7 +28754,7 @@
         <v>680</v>
       </c>
       <c r="L505" s="4"/>
-      <c r="M505" s="2" t="s">
+      <c r="M505" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N505" s="2" t="s">
@@ -28892,7 +28892,7 @@
       </c>
       <c r="K508" s="2"/>
       <c r="L508" s="4"/>
-      <c r="M508" s="2" t="s">
+      <c r="M508" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N508" s="2" t="s">
@@ -29040,7 +29040,7 @@
       </c>
       <c r="K511" s="2"/>
       <c r="L511" s="4"/>
-      <c r="M511" s="2" t="s">
+      <c r="M511" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N511" s="2" t="s">
@@ -29268,7 +29268,7 @@
         <v>681</v>
       </c>
       <c r="L516" s="4"/>
-      <c r="M516" s="2" t="s">
+      <c r="M516" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N516" s="2" t="s">
@@ -29658,7 +29658,7 @@
       </c>
       <c r="K524" s="2"/>
       <c r="L524" s="4"/>
-      <c r="M524" s="2" t="s">
+      <c r="M524" s="3" t="s">
         <v>120</v>
       </c>
       <c r="N524" s="2"/>
